--- a/Stationery/bin/Debug/Report1.xlsx
+++ b/Stationery/bin/Debug/Report1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Наименование организации</t>
   </si>
@@ -33,22 +33,34 @@
     <t>Ведомость на выдачу канцтоваров</t>
   </si>
   <si>
+    <t>21.03.2020 0:00:00</t>
+  </si>
+  <si>
+    <t>Отпуск произвёл</t>
+  </si>
+  <si>
+    <t>Фамилия И.О.</t>
+  </si>
+  <si>
+    <t>Получатель</t>
+  </si>
+  <si>
+    <t>Цаль Виталий Иванович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Фамилия И.О.</t>
+  </si>
+  <si>
+    <t>На основании Приказа №</t>
+  </si>
+  <si>
+    <t>от</t>
+  </si>
+  <si>
     <t>"                "</t>
   </si>
   <si>
-    <t>Отпуск произвёл</t>
-  </si>
-  <si>
-    <t>должность, Фамилия И.О.</t>
-  </si>
-  <si>
-    <t>Получатель</t>
-  </si>
-  <si>
-    <t>На основании Приказа №</t>
-  </si>
-  <si>
-    <t>от</t>
+    <t>2020 года</t>
   </si>
   <si>
     <t>Наименование ТМЦ</t>
@@ -63,16 +75,16 @@
     <t>Сумма</t>
   </si>
   <si>
-    <t>Итого</t>
-  </si>
-  <si>
-    <t>2020 года</t>
+    <t>Ручка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -110,19 +122,19 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -140,43 +152,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -186,50 +161,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -514,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,24 +507,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -561,24 +536,24 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -590,232 +565,318 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="3" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>13</v>
+      <c r="F23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="A24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="41">
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
@@ -825,27 +886,37 @@
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:F18"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Stationery/bin/Debug/Report1.xlsx
+++ b/Stationery/bin/Debug/Report1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Наименование организации</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Ведомость на выдачу канцтоваров</t>
   </si>
   <si>
-    <t>21.03.2020 0:00:00</t>
+    <t>23.03.2020 0:00:00</t>
   </si>
   <si>
     <t>Отпуск произвёл</t>
@@ -45,7 +45,7 @@
     <t>Получатель</t>
   </si>
   <si>
-    <t>Цаль Виталий Иванович</t>
+    <t>Громяко Николай Петрович</t>
   </si>
   <si>
     <t xml:space="preserve"> Фамилия И.О.</t>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Сумма</t>
-  </si>
-  <si>
-    <t>Ручка</t>
   </si>
 </sst>
 </file>
@@ -156,13 +153,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -170,40 +188,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -489,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,396 +491,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="12"/>
       <c r="H21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="6" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="9">
-        <v>1</v>
-      </c>
-      <c r="F24" s="9">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A26:D26"/>
+  <mergeCells count="16">
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A23:D23"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A14:B14"/>
@@ -904,18 +675,12 @@
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
